--- a/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testOutput.xlsx
+++ b/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testOutput.xlsx
@@ -452,8 +452,8 @@
   </sheetPr>
   <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1789,112 +1789,112 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -2015,6 +2015,9 @@
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2127,6 +2130,9 @@
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2135,109 +2141,112 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.602493847776734</v>
+        <v>2.510240337087943</v>
       </c>
       <c r="C12" t="n">
-        <v>2.480586136882728</v>
+        <v>2.534260908428925</v>
       </c>
       <c r="D12" t="n">
-        <v>2.763158431136454</v>
+        <v>2.642468318339884</v>
       </c>
       <c r="E12" t="n">
-        <v>2.678881551486091</v>
+        <v>2.650405741329382</v>
       </c>
       <c r="F12" t="n">
-        <v>2.95986213577538</v>
+        <v>2.951549657622568</v>
       </c>
       <c r="G12" t="n">
-        <v>2.946065844769682</v>
+        <v>4.903958747961076</v>
       </c>
       <c r="H12" t="n">
-        <v>1.816447666506996</v>
+        <v>1.570329713820161</v>
       </c>
       <c r="I12" t="n">
-        <v>1.85822428278781</v>
+        <v>1.670237954592491</v>
       </c>
       <c r="J12" t="n">
-        <v>1.948843925958526</v>
+        <v>1.859755667534248</v>
       </c>
       <c r="K12" t="n">
-        <v>1.968052595133103</v>
+        <v>1.917000974364391</v>
       </c>
       <c r="L12" t="n">
-        <v>2.178457144006108</v>
+        <v>2.374821719504367</v>
       </c>
       <c r="M12" t="n">
-        <v>1.749866010490854</v>
+        <v>2.532642784980308</v>
       </c>
       <c r="N12" t="n">
-        <v>2.565454175534614</v>
+        <v>2.535502183707131</v>
       </c>
       <c r="O12" t="n">
-        <v>2.53494775149387</v>
+        <v>2.506640095303574</v>
       </c>
       <c r="P12" t="n">
-        <v>2.798733025449341</v>
+        <v>2.652762638968041</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.687941435686742</v>
+        <v>2.573203100814043</v>
       </c>
       <c r="R12" t="n">
-        <v>3.03576221202022</v>
+        <v>3.019454780130962</v>
       </c>
       <c r="S12" t="n">
-        <v>3.13437580473058</v>
+        <v>4.728587680424217</v>
       </c>
       <c r="T12" t="n">
-        <v>1.936484365068223</v>
+        <v>1.818786763786042</v>
       </c>
       <c r="U12" t="n">
-        <v>1.892397583008735</v>
+        <v>1.849659251174144</v>
       </c>
       <c r="V12" t="n">
-        <v>2.066535871383289</v>
+        <v>1.903180264649677</v>
       </c>
       <c r="W12" t="n">
-        <v>2.064684463361939</v>
+        <v>1.906090730672144</v>
       </c>
       <c r="X12" t="n">
-        <v>2.258443263417687</v>
+        <v>2.120664048248846</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.526231068934365</v>
+        <v>2.379588600858021</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.570341233642974</v>
+        <v>1.3850982540453</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.580760464068362</v>
+        <v>1.118090788520629</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.681504338613149</v>
+        <v>1.592263238666221</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.765118098294481</v>
+        <v>1.624166118119604</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.047951029560641</v>
+        <v>1.857989420555625</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.855799611003678</v>
+        <v>1.843461909116229</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.953750159520182</v>
+        <v>1.844703717614647</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.906594460256435</v>
+        <v>1.85448469761004</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.074440005084698</v>
+        <v>1.87775465951791</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.065687569680073</v>
+        <v>1.890599848240704</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.901663273087431</v>
+        <v>2.153409797943765</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.380560426708199</v>
       </c>
     </row>
     <row r="13">
@@ -2250,106 +2259,109 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9771909501383567</v>
+        <v>1.08210984141857</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.019789239727795</v>
+        <v>1.017975066445145</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.017801781526422</v>
+        <v>3.354579391119001</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7967435409114649</v>
+        <v>0.8803753097150453</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8603579100433165</v>
+        <v>0.6841582066633933</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8029616666415349</v>
+        <v>1.659099702046435</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8820788026424949</v>
+        <v>0.9149014242156961</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.930539096115895</v>
+        <v>0.8161445731928514</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.228674698014673</v>
+        <v>2.955606255506924</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8935532725740687</v>
+        <v>0.8425847314569814</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9788942643824889</v>
+        <v>0.7753656966962654</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7727885188383252</v>
+        <v>1.847804178433725</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.8892635103922581</v>
+        <v>1.195188478794655</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9275895310053053</v>
+        <v>0.8861733640483411</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.024093509187074</v>
+        <v>2.440903556956675</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8971537889044843</v>
+        <v>0.914891665576802</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.9897464738472279</v>
+        <v>0.8716592793330977</v>
       </c>
       <c r="AJ13" t="n">
         <v>1</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.075499343207353</v>
       </c>
     </row>
     <row r="14">
@@ -2359,109 +2371,112 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.305452927468098</v>
+        <v>0.2660303265028449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1070361005421089</v>
+        <v>0.3159907225828812</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1007651122834651</v>
+        <v>0.1016323666696669</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09693028247726443</v>
+        <v>-1.95901583415939e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3119116995906673</v>
+        <v>0.6750042881934855</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1002522805837365</v>
+        <v>0.5930373026330531</v>
       </c>
       <c r="J14" t="n">
         <v>0.1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09554019102508984</v>
+        <v>0.1242629711206204</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1208213305898486</v>
+        <v>0.1221732209185763</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3088601478870408</v>
+        <v>0.2716783694405327</v>
       </c>
       <c r="O14" t="n">
-        <v>0.103046298328711</v>
+        <v>0.2260309245264173</v>
       </c>
       <c r="P14" t="n">
         <v>0.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1078142243981835</v>
+        <v>0.1202837748642186</v>
       </c>
       <c r="R14" t="n">
         <v>0.1</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1041942443987193</v>
+        <v>-6.280552820906689e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2811025055048082</v>
+        <v>0.2892948348478325</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09996414882228702</v>
+        <v>0.1065913500231405</v>
       </c>
       <c r="V14" t="n">
         <v>0.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1008875157465445</v>
+        <v>0.09878103957924164</v>
       </c>
       <c r="X14" t="n">
         <v>0.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.09374006915866434</v>
+        <v>4.990325831399761e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3177493631717951</v>
+        <v>0.5896053874705605</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1028590906314892</v>
+        <v>0.7792319457584678</v>
       </c>
       <c r="AB14" t="n">
         <v>0.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.09717094340356358</v>
+        <v>0.1064427959723888</v>
       </c>
       <c r="AD14" t="n">
         <v>0.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1022976680384081</v>
+        <v>-0.2073089895493546</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.3057164980003834</v>
+        <v>0.000140404024558762</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1010480341812794</v>
+        <v>0.0001072361881040907</v>
       </c>
       <c r="AH14" t="n">
         <v>0.1</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1108631825689754</v>
+        <v>0.1309574842387073</v>
       </c>
       <c r="AJ14" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-5.282037031526254e-06</v>
       </c>
     </row>
     <row r="15">
@@ -2471,109 +2486,112 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.305452927468098</v>
+        <v>0.2660303265028449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1070361005421089</v>
+        <v>0.3159907225828812</v>
       </c>
       <c r="D15" t="n">
         <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1007651122834651</v>
+        <v>0.1016323666696669</v>
       </c>
       <c r="F15" t="n">
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09693028247726443</v>
+        <v>-1.95901583415939e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3119116995906673</v>
+        <v>0.6750042881934855</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1002522805837365</v>
+        <v>0.5930373026330531</v>
       </c>
       <c r="J15" t="n">
         <v>0.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09554019102508984</v>
+        <v>0.1242629711206204</v>
       </c>
       <c r="L15" t="n">
         <v>0.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1208213305898486</v>
+        <v>0.1221732209185763</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3088601478870408</v>
+        <v>0.2716783694405327</v>
       </c>
       <c r="O15" t="n">
-        <v>0.103046298328711</v>
+        <v>0.2260309245264173</v>
       </c>
       <c r="P15" t="n">
         <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1078142243981835</v>
+        <v>0.1202837748642186</v>
       </c>
       <c r="R15" t="n">
         <v>0.1</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1041942443987193</v>
+        <v>-6.280552820906689e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2811025055048082</v>
+        <v>0.2892948348478325</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09996414882228702</v>
+        <v>0.1065913500231405</v>
       </c>
       <c r="V15" t="n">
         <v>0.1</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1008875157465445</v>
+        <v>0.09878103957924164</v>
       </c>
       <c r="X15" t="n">
         <v>0.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09374006915866434</v>
+        <v>4.990325831399761e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3177493631717951</v>
+        <v>0.5896053874705605</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1028590906314892</v>
+        <v>0.7792319457584678</v>
       </c>
       <c r="AB15" t="n">
         <v>0.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.09717094340356358</v>
+        <v>0.1064427959723888</v>
       </c>
       <c r="AD15" t="n">
         <v>0.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1022976680384081</v>
+        <v>-0.2073089895493546</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3057164980003834</v>
+        <v>0.000140404024558762</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1010480341812794</v>
+        <v>0.0001072361881040907</v>
       </c>
       <c r="AH15" t="n">
         <v>0.1</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1108631825689754</v>
+        <v>0.1309574842387073</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-5.282037031526254e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2583,109 +2601,112 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.716045065762821</v>
+        <v>1.729106912058925</v>
       </c>
       <c r="C16" t="n">
-        <v>1.773831704370333</v>
+        <v>1.707690314204815</v>
       </c>
       <c r="D16" t="n">
-        <v>1.701603884938985</v>
+        <v>1.658429098984197</v>
       </c>
       <c r="E16" t="n">
-        <v>1.713252517249158</v>
+        <v>1.658143872145639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5183072138267475</v>
+        <v>0.5708513545056191</v>
       </c>
       <c r="G16" t="n">
-        <v>1.351778640296455</v>
+        <v>1.158930963962206</v>
       </c>
       <c r="H16" t="n">
-        <v>1.676021378636743</v>
+        <v>1.36601500182351</v>
       </c>
       <c r="I16" t="n">
-        <v>1.734890226389705</v>
+        <v>1.467699690798502</v>
       </c>
       <c r="J16" t="n">
-        <v>1.62220271095044</v>
+        <v>1.607151979715292</v>
       </c>
       <c r="K16" t="n">
-        <v>1.662963791893355</v>
+        <v>1.616220166163104</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1432409021594613</v>
+        <v>1.113226979025526</v>
       </c>
       <c r="M16" t="n">
-        <v>0.078846641214672</v>
+        <v>1.15503141190061</v>
       </c>
       <c r="N16" t="n">
-        <v>1.774903588721411</v>
+        <v>1.75973734198391</v>
       </c>
       <c r="O16" t="n">
-        <v>1.814834538907816</v>
+        <v>1.779081783481806</v>
       </c>
       <c r="P16" t="n">
-        <v>1.676705452422817</v>
+        <v>1.676295014325644</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.740281941719245</v>
+        <v>1.682521804573865</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8295296434256973</v>
+        <v>0.6288603920749443</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2255420661235528</v>
+        <v>1.246845498838284</v>
       </c>
       <c r="T16" t="n">
-        <v>1.494725523228414</v>
+        <v>1.4181541167853</v>
       </c>
       <c r="U16" t="n">
-        <v>1.506420725213707</v>
+        <v>1.488888418024105</v>
       </c>
       <c r="V16" t="n">
-        <v>1.469129712858324</v>
+        <v>1.407328239185946</v>
       </c>
       <c r="W16" t="n">
-        <v>1.483431286066535</v>
+        <v>1.412781244709032</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1970807588313193</v>
+        <v>-0.2469559826222812</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2095159837165781</v>
+        <v>-0.1763033156351596</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.470314822565802</v>
+        <v>1.227217871658266</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.501956807365214</v>
+        <v>0.9377246251825487</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.485890064336703</v>
+        <v>1.447315777391026</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.422229304375515</v>
+        <v>1.447815048048386</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.3697591879513932</v>
+        <v>0.1798922561172966</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.7708838683077324</v>
+        <v>-0.01458435864117323</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.574508452762708</v>
+        <v>1.560497105862173</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.597985148418946</v>
+        <v>1.566508295481152</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.528439013932497</v>
+        <v>1.465922231604242</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.482994132533056</v>
+        <v>1.46826147353601</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.3399464494427364</v>
+        <v>0.1673387107634285</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.1909493472265272</v>
       </c>
     </row>
     <row r="17">
@@ -2695,109 +2716,112 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.042477191439504</v>
+        <v>2.042640439613892</v>
       </c>
       <c r="C17" t="n">
-        <v>2.070518446134976</v>
+        <v>2.032201281960368</v>
       </c>
       <c r="D17" t="n">
-        <v>1.973606675111403</v>
+        <v>1.924246569839641</v>
       </c>
       <c r="E17" t="n">
-        <v>1.954298562852144</v>
+        <v>1.925132436767595</v>
       </c>
       <c r="F17" t="n">
-        <v>2.033510114676406</v>
+        <v>1.881006062731893</v>
       </c>
       <c r="G17" t="n">
-        <v>1.826780990709398</v>
+        <v>2.646249683078146</v>
       </c>
       <c r="H17" t="n">
-        <v>2.051139351873926</v>
+        <v>1.823110210400324</v>
       </c>
       <c r="I17" t="n">
-        <v>2.083330112946375</v>
+        <v>1.891728827928294</v>
       </c>
       <c r="J17" t="n">
-        <v>1.988934914639652</v>
+        <v>1.937037297043898</v>
       </c>
       <c r="K17" t="n">
-        <v>1.982876626617703</v>
+        <v>1.912315127190203</v>
       </c>
       <c r="L17" t="n">
-        <v>1.992676687768666</v>
+        <v>2.810352422683962</v>
       </c>
       <c r="M17" t="n">
-        <v>2.292051639842167</v>
+        <v>2.959408580257245</v>
       </c>
       <c r="N17" t="n">
-        <v>2.0579833907253</v>
+        <v>2.01114664039522</v>
       </c>
       <c r="O17" t="n">
-        <v>2.060034486027075</v>
+        <v>2.021205092565601</v>
       </c>
       <c r="P17" t="n">
-        <v>1.905761542520324</v>
+        <v>1.888454442508953</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.998525395694109</v>
+        <v>1.884334600925656</v>
       </c>
       <c r="R17" t="n">
-        <v>1.982638716836552</v>
+        <v>1.722832320468479</v>
       </c>
       <c r="S17" t="n">
-        <v>1.850485999487663</v>
+        <v>2.418170920996609</v>
       </c>
       <c r="T17" t="n">
-        <v>1.916148955558776</v>
+        <v>1.84019798003261</v>
       </c>
       <c r="U17" t="n">
-        <v>1.928319660687954</v>
+        <v>1.872076172302995</v>
       </c>
       <c r="V17" t="n">
-        <v>1.788801093508745</v>
+        <v>1.743457550504091</v>
       </c>
       <c r="W17" t="n">
-        <v>1.808174058789787</v>
+        <v>1.729384090292755</v>
       </c>
       <c r="X17" t="n">
-        <v>2.141849269851471</v>
+        <v>1.662211840121324</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.142756350385203</v>
+        <v>1.758222931578706</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.94984826802223</v>
+        <v>1.763522840523247</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.936906815912402</v>
+        <v>1.555310886223758</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.865250642757792</v>
+        <v>1.823258594574986</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.790759171003057</v>
+        <v>1.815461605590777</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.293639194443013</v>
+        <v>2.312122009617819</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.112868787564308</v>
+        <v>2.575765746758302</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.958516784022431</v>
+        <v>1.950315265013981</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.995687677145375</v>
+        <v>1.949806400004824</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.837115930627338</v>
+        <v>1.791425899877709</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.789123496457258</v>
+        <v>1.786822502428821</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.223005541352657</v>
+        <v>2.035067777845744</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.084082081229171</v>
       </c>
     </row>
     <row r="18">
@@ -2807,109 +2831,112 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.507671822886542</v>
+        <v>2.4945476233222</v>
       </c>
       <c r="C18" t="n">
-        <v>2.51472123927382</v>
+        <v>2.506507646524992</v>
       </c>
       <c r="D18" t="n">
-        <v>2.371673582976249</v>
+        <v>2.332867018492682</v>
       </c>
       <c r="E18" t="n">
-        <v>2.348188171027345</v>
+        <v>2.33730945564316</v>
       </c>
       <c r="F18" t="n">
-        <v>3.507765602667489</v>
+        <v>3.377601179115274</v>
       </c>
       <c r="G18" t="n">
-        <v>2.993396508674058</v>
+        <v>4.734654467264612</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52227852213695</v>
+        <v>2.375211415207111</v>
       </c>
       <c r="I18" t="n">
-        <v>2.525636402614496</v>
+        <v>2.400471599389855</v>
       </c>
       <c r="J18" t="n">
-        <v>2.443045027401026</v>
+        <v>2.378203925270279</v>
       </c>
       <c r="K18" t="n">
-        <v>2.42066042789814</v>
+        <v>2.290636831388111</v>
       </c>
       <c r="L18" t="n">
-        <v>4.064337674841838</v>
+        <v>4.780643504466928</v>
       </c>
       <c r="M18" t="n">
-        <v>4.052285633606068</v>
+        <v>5.099888417467243</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4716874347701</v>
+        <v>2.443737364205868</v>
       </c>
       <c r="O18" t="n">
-        <v>2.454924553372743</v>
+        <v>2.432012319540827</v>
       </c>
       <c r="P18" t="n">
-        <v>2.294679515290761</v>
+        <v>2.268990077082738</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.301180469993875</v>
+        <v>2.230482849347148</v>
       </c>
       <c r="R18" t="n">
-        <v>3.401826477912505</v>
+        <v>3.169350643124277</v>
       </c>
       <c r="S18" t="n">
-        <v>3.536437851904524</v>
+        <v>4.301158959567953</v>
       </c>
       <c r="T18" t="n">
-        <v>2.368319521226177</v>
+        <v>2.281054214424132</v>
       </c>
       <c r="U18" t="n">
-        <v>2.316603896757624</v>
+        <v>2.273893621525585</v>
       </c>
       <c r="V18" t="n">
-        <v>2.193064570821479</v>
+        <v>2.122401261046242</v>
       </c>
       <c r="W18" t="n">
-        <v>2.139292675422054</v>
+        <v>2.07991540065955</v>
       </c>
       <c r="X18" t="n">
-        <v>3.882983916210766</v>
+        <v>3.462815275034791</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.322051804747116</v>
+        <v>3.668675571828267</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.413293826351478</v>
+        <v>2.303210370489922</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.405559410721403</v>
+        <v>2.174014642135929</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.288175372705881</v>
+        <v>2.257399291298711</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.272131126952345</v>
+        <v>2.231197202990996</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.057700463278688</v>
+        <v>4.313922776605013</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.997599796131212</v>
+        <v>5.108487784964346</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.507540728069327</v>
+        <v>2.459783563366975</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.474803524691465</v>
+        <v>2.438729464641831</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.409124790935868</v>
+        <v>2.2474349631376</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.241515602202034</v>
+        <v>2.218683171712529</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4.136480895387019</v>
+        <v>4.078742774952473</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>4.348938671815311</v>
       </c>
     </row>
     <row r="19">
@@ -3003,109 +3030,112 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="J31" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="L31" t="n">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="N31" t="n">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="Q31" t="n">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="R31" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="S31" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="T31" t="n">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="V31" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="W31" t="n">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>486</v>
       </c>
       <c r="AB31" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="n">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="n">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="32">
@@ -3115,109 +3145,112 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.599933121000049</v>
+        <v>13.483990915</v>
       </c>
       <c r="C32" t="n">
-        <v>2.746476228000006</v>
+        <v>41.556399857</v>
       </c>
       <c r="D32" t="n">
-        <v>3.909594448999997</v>
+        <v>20.67427857999999</v>
       </c>
       <c r="E32" t="n">
-        <v>4.091077147000078</v>
+        <v>32.38605323899999</v>
       </c>
       <c r="F32" t="n">
-        <v>3.854836693000038</v>
+        <v>20.102817896</v>
       </c>
       <c r="G32" t="n">
-        <v>3.485827481999991</v>
+        <v>82.05618645500002</v>
       </c>
       <c r="H32" t="n">
-        <v>1.924816401000044</v>
+        <v>18.50792838699999</v>
       </c>
       <c r="I32" t="n">
-        <v>2.621011933999966</v>
+        <v>39.39442407299998</v>
       </c>
       <c r="J32" t="n">
-        <v>3.889325249999956</v>
+        <v>19.26360969900003</v>
       </c>
       <c r="K32" t="n">
-        <v>3.629871782000009</v>
+        <v>40.56345128799995</v>
       </c>
       <c r="L32" t="n">
-        <v>3.700590826999928</v>
+        <v>30.78088812300001</v>
       </c>
       <c r="M32" t="n">
-        <v>3.448848016000056</v>
+        <v>80.92296789900001</v>
       </c>
       <c r="N32" t="n">
-        <v>1.638192936999985</v>
+        <v>16.26720978499998</v>
       </c>
       <c r="O32" t="n">
-        <v>2.879867238999964</v>
+        <v>39.37687430500006</v>
       </c>
       <c r="P32" t="n">
-        <v>3.857219724000061</v>
+        <v>20.40105888599999</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.609760314000027</v>
+        <v>33.82051068999999</v>
       </c>
       <c r="R32" t="n">
-        <v>3.552871393000032</v>
+        <v>20.06250569899998</v>
       </c>
       <c r="S32" t="n">
-        <v>3.612989188000029</v>
+        <v>58.88619220800001</v>
       </c>
       <c r="T32" t="n">
-        <v>2.179205403999958</v>
+        <v>10.29901377200008</v>
       </c>
       <c r="U32" t="n">
-        <v>2.698990062999997</v>
+        <v>17.77590156200006</v>
       </c>
       <c r="V32" t="n">
-        <v>3.981370504999973</v>
+        <v>19.64058969999996</v>
       </c>
       <c r="W32" t="n">
-        <v>3.946254195000051</v>
+        <v>37.02225894499998</v>
       </c>
       <c r="X32" t="n">
-        <v>4.148461060999921</v>
+        <v>23.36424554600001</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.785710227000095</v>
+        <v>76.15640610100002</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.776926458000048</v>
+        <v>20.40178999800003</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.162537678000035</v>
+        <v>47.21167960700006</v>
       </c>
       <c r="AB32" t="n">
-        <v>4.184036407000008</v>
+        <v>17.88916200699998</v>
       </c>
       <c r="AC32" t="n">
-        <v>3.957034170000043</v>
+        <v>38.22741073200007</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.660557737999966</v>
+        <v>29.58209744399994</v>
       </c>
       <c r="AE32" t="n">
-        <v>3.501787368000009</v>
+        <v>97.27880634300004</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.56168903899993</v>
+        <v>38.08198440199999</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.416468639999948</v>
+        <v>55.86822430699999</v>
       </c>
       <c r="AH32" t="n">
-        <v>3.691553497999962</v>
+        <v>20.18341933099987</v>
       </c>
       <c r="AI32" t="n">
-        <v>3.647537125999975</v>
+        <v>38.57678558599991</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3.76512088700008</v>
+        <v>20.83860703599998</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>85.120131915</v>
       </c>
     </row>
     <row r="33">
@@ -3227,109 +3260,112 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.051671882430795</v>
+        <v>2.518187059015444</v>
       </c>
       <c r="C33" t="n">
-        <v>3.351341082874732</v>
+        <v>2.301736529970168</v>
       </c>
       <c r="D33" t="n">
-        <v>4.761339916289205</v>
+        <v>2.325137849148791</v>
       </c>
       <c r="E33" t="n">
-        <v>4.905822186968845</v>
+        <v>2.315415801849298</v>
       </c>
       <c r="F33" t="n">
-        <v>52.35405207477582</v>
+        <v>50.63362355488033</v>
       </c>
       <c r="G33" t="n">
-        <v>140.1178285773959</v>
+        <v>7.217643834395346</v>
       </c>
       <c r="H33" t="n">
-        <v>8.164729259099616</v>
+        <v>1.392249065471157</v>
       </c>
       <c r="I33" t="n">
-        <v>6.12623216975883</v>
+        <v>0.6538447357646472</v>
       </c>
       <c r="J33" t="n">
-        <v>9.981050471264956</v>
+        <v>7.225079037157866</v>
       </c>
       <c r="K33" t="n">
-        <v>6.767320572172606</v>
+        <v>1.557136667203118</v>
       </c>
       <c r="L33" t="n">
-        <v>26.12914305719057</v>
+        <v>3.15779515523774</v>
       </c>
       <c r="M33" t="n">
-        <v>50.35611817838591</v>
+        <v>0.4389650900952931</v>
       </c>
       <c r="N33" t="n">
-        <v>3.830569174097855</v>
+        <v>2.463289780794331</v>
       </c>
       <c r="O33" t="n">
-        <v>2.532318484831977</v>
+        <v>2.166692560826356</v>
       </c>
       <c r="P33" t="n">
-        <v>8.44600583498887</v>
+        <v>5.141195445614672</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.69908060172372</v>
+        <v>3.998079969882379</v>
       </c>
       <c r="R33" t="n">
-        <v>48.06669814623117</v>
+        <v>46.16253354283122</v>
       </c>
       <c r="S33" t="n">
-        <v>52.12425601224891</v>
+        <v>9.498015553923961</v>
       </c>
       <c r="T33" t="n">
-        <v>10.86014906461148</v>
+        <v>6.332099711995342</v>
       </c>
       <c r="U33" t="n">
-        <v>6.907204796024965</v>
+        <v>4.750743643471758</v>
       </c>
       <c r="V33" t="n">
-        <v>18.70789678336011</v>
+        <v>12.16490538560425</v>
       </c>
       <c r="W33" t="n">
-        <v>21.33162633795488</v>
+        <v>9.661483461157538</v>
       </c>
       <c r="X33" t="n">
-        <v>30.78168473085721</v>
+        <v>23.16033061034354</v>
       </c>
       <c r="Y33" t="n">
-        <v>108.3343771855111</v>
+        <v>11.36777755066132</v>
       </c>
       <c r="Z33" t="n">
-        <v>10.0483699732904</v>
+        <v>6.646932056649981</v>
       </c>
       <c r="AA33" t="n">
-        <v>10.76022336395156</v>
+        <v>5.722261774072575</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.468926023064141</v>
+        <v>5.270258342481504</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.62890591124937</v>
+        <v>4.595780580729979</v>
       </c>
       <c r="AD33" t="n">
-        <v>35.80379140056458</v>
+        <v>18.50885306551431</v>
       </c>
       <c r="AE33" t="n">
-        <v>44.34493178577922</v>
+        <v>5.374701811413915</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.02249081597182</v>
+        <v>5.127413892028574</v>
       </c>
       <c r="AG33" t="n">
-        <v>6.083403117250815</v>
+        <v>4.646536265269221</v>
       </c>
       <c r="AH33" t="n">
-        <v>28.18462770849129</v>
+        <v>12.09083775580585</v>
       </c>
       <c r="AI33" t="n">
-        <v>18.32168781609554</v>
+        <v>11.36957441861718</v>
       </c>
       <c r="AJ33" t="n">
-        <v>38.00065086544119</v>
+        <v>26.27751223902415</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>11.7989648610472</v>
       </c>
     </row>
     <row r="34">
@@ -3443,6 +3479,9 @@
       <c r="AJ34" t="n">
         <v>5</v>
       </c>
+      <c r="AK34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3451,109 +3490,112 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.012917970607699</v>
+        <v>0.629546764753861</v>
       </c>
       <c r="C35" t="n">
-        <v>1.117113694291577</v>
+        <v>0.767245509990056</v>
       </c>
       <c r="D35" t="n">
-        <v>0.952267983257841</v>
+        <v>0.4650275698297582</v>
       </c>
       <c r="E35" t="n">
-        <v>1.635274062322948</v>
+        <v>0.7718052672830993</v>
       </c>
       <c r="F35" t="n">
-        <v>10.47081041495516</v>
+        <v>10.12672471097607</v>
       </c>
       <c r="G35" t="n">
-        <v>46.70594285913196</v>
+        <v>2.405881278131782</v>
       </c>
       <c r="H35" t="n">
-        <v>2.041182314774904</v>
+        <v>0.3480622663677893</v>
       </c>
       <c r="I35" t="n">
-        <v>2.04207738991961</v>
+        <v>0.2179482452548824</v>
       </c>
       <c r="J35" t="n">
-        <v>1.996210094252991</v>
+        <v>1.445015807431573</v>
       </c>
       <c r="K35" t="n">
-        <v>2.255773524057535</v>
+        <v>0.5190455557343727</v>
       </c>
       <c r="L35" t="n">
-        <v>5.225828611438115</v>
+        <v>0.631559031047548</v>
       </c>
       <c r="M35" t="n">
-        <v>16.78537272612864</v>
+        <v>0.146321696698431</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9576422935244638</v>
+        <v>0.6158224451985829</v>
       </c>
       <c r="O35" t="n">
-        <v>0.844106161610659</v>
+        <v>0.7222308536087853</v>
       </c>
       <c r="P35" t="n">
-        <v>1.689201166997774</v>
+        <v>1.028239089122934</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.233026867241239</v>
+        <v>1.332693323294126</v>
       </c>
       <c r="R35" t="n">
-        <v>9.613339629246234</v>
+        <v>9.232506708566245</v>
       </c>
       <c r="S35" t="n">
-        <v>17.37475200408297</v>
+        <v>3.166005184641321</v>
       </c>
       <c r="T35" t="n">
-        <v>2.71503726615287</v>
+        <v>1.583024927998836</v>
       </c>
       <c r="U35" t="n">
-        <v>2.302401598674988</v>
+        <v>1.583581214490586</v>
       </c>
       <c r="V35" t="n">
-        <v>3.741579356672021</v>
+        <v>2.432981077120849</v>
       </c>
       <c r="W35" t="n">
-        <v>7.110542112651626</v>
+        <v>3.220494487052513</v>
       </c>
       <c r="X35" t="n">
-        <v>6.156336946171441</v>
+        <v>4.632066122068709</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.11145906183703</v>
+        <v>3.789259183553774</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.512092493322601</v>
+        <v>1.661733014162495</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.586741121317186</v>
+        <v>1.907420591357525</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.493785204612828</v>
+        <v>1.054051668496301</v>
       </c>
       <c r="AC35" t="n">
-        <v>3.876301970416456</v>
+        <v>1.531926860243326</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.160758280112915</v>
+        <v>3.701770613102862</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.78164392859308</v>
+        <v>1.791567270471305</v>
       </c>
       <c r="AF35" t="n">
-        <v>3.005622703992954</v>
+        <v>1.281853473007144</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.027801039083605</v>
+        <v>1.548845421756407</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.636925541698258</v>
+        <v>2.41816755116117</v>
       </c>
       <c r="AI35" t="n">
-        <v>6.107229272031845</v>
+        <v>3.78985813953906</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7.600130173088237</v>
+        <v>5.25550244780483</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3.932988287015734</v>
       </c>
     </row>
     <row r="36">
@@ -3674,6 +3716,9 @@
       <c r="AJ37" t="n">
         <v>481</v>
       </c>
+      <c r="AK37" t="n">
+        <v>481</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3786,6 +3831,9 @@
       <c r="AJ38" t="n">
         <v>239</v>
       </c>
+      <c r="AK38" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3898,6 +3946,9 @@
       <c r="AJ39" t="n">
         <v>242</v>
       </c>
+      <c r="AK39" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -4010,6 +4061,9 @@
       <c r="AJ40" t="n">
         <v>0.5413223140495868</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.5413223140495868</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4122,6 +4176,9 @@
       <c r="AJ41" t="n">
         <v>0.04602510460251046</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.04602510460251046</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4234,6 +4291,9 @@
       <c r="AJ42" t="n">
         <v>1.919811396965844</v>
       </c>
+      <c r="AK42" t="n">
+        <v>1.919811396965844</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4344,6 +4404,9 @@
         <v>0.01874652181915064</v>
       </c>
       <c r="AJ43" t="n">
+        <v>0.01874652181915064</v>
+      </c>
+      <c r="AK43" t="n">
         <v>0.01874652181915064</v>
       </c>
     </row>

--- a/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testOutput.xlsx
+++ b/data/published/2020_Colloff_SealeCarlisle_Karoğlu_etal/testOutput.xlsx
@@ -450,10 +450,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK43"/>
+  <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:AK8"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -470,7 +470,11 @@
     <col width="16.83203125" customWidth="1" style="1" min="27" max="31"/>
     <col width="19.5" customWidth="1" style="1" min="32" max="32"/>
     <col width="16.83203125" customWidth="1" style="1" min="33" max="37"/>
-    <col width="10.83203125" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="19.5" customWidth="1" style="1" min="38" max="38"/>
+    <col width="16.83203125" customWidth="1" style="1" min="39" max="43"/>
+    <col width="19.5" customWidth="1" style="1" min="44" max="44"/>
+    <col width="16.83203125" customWidth="1" style="1" min="45" max="49"/>
+    <col width="10.83203125" customWidth="1" style="1" min="50" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -659,6 +663,66 @@
           <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E1()</t>
         </is>
       </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>published_Colloff_SealeCarlisle_Karoğlu_etal2020_E2()</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -846,6 +910,66 @@
           <t>Integration</t>
         </is>
       </c>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AS2" s="3" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AU2" s="3" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AV2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AW2" s="3" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1033,6 +1157,66 @@
           <t>UnequalVariance</t>
         </is>
       </c>
+      <c r="AL3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AM3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AN3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AO3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AP3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AQ3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AR3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AS3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AT3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AU3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AV3" s="3" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AW3" s="3" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1220,6 +1404,66 @@
           <t>{"keep":1}</t>
         </is>
       </c>
+      <c r="AL4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AM4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AN4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AO4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AP4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AQ4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AR4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AS4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AT4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AU4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AV4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AW4" s="3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1407,6 +1651,66 @@
           <t>condition 6</t>
         </is>
       </c>
+      <c r="AL5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AM5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AN5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AO5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AP5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AQ5" s="3" t="inlineStr">
+        <is>
+          <t>condition 1</t>
+        </is>
+      </c>
+      <c r="AR5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
+      <c r="AS5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
+      <c r="AT5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
+      <c r="AU5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
+      <c r="AV5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
+      <c r="AW5" s="3" t="inlineStr">
+        <is>
+          <t>condition 2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1594,6 +1898,66 @@
           <t>[-1,60,80,100]</t>
         </is>
       </c>
+      <c r="AL6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AM6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AN6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AO6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AP6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AR6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AS6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AT6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AU6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AV6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AW6" s="3" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
     </row>
     <row r="7" customFormat="1" s="4">
       <c r="A7" s="4" t="inlineStr">
@@ -1781,6 +2145,66 @@
           <t>True</t>
         </is>
       </c>
+      <c r="AL7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AM7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AN7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AO7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AQ7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AR7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AS7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AT7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AU7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AV7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AW7" s="4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1896,6 +2320,42 @@
       <c r="AK8" s="3" t="n">
         <v>2000</v>
       </c>
+      <c r="AL8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -2018,6 +2478,42 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2133,6 +2629,42 @@
       <c r="AK11" t="n">
         <v>1</v>
       </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2248,6 +2780,42 @@
       <c r="AK12" t="n">
         <v>2.380560426708199</v>
       </c>
+      <c r="AL12" t="n">
+        <v>2.144890301870147</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.131807028710289</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.244695537045953</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2.206716400161445</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.320839136706579</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3.230845867900177</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.817714721252564</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.821241986507835</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.069358822603493</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2.041679308132792</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2.403843213471901</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2.850232685091798</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2363,6 +2931,42 @@
       <c r="AK13" t="n">
         <v>2.075499343207353</v>
       </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.9656404952878361</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.8928311537342123</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.233517943654848</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.9881074492589208</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.8030873530677172</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.913681936178128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2478,6 +3082,42 @@
       <c r="AK14" t="n">
         <v>-5.282037031526254e-06</v>
       </c>
+      <c r="AL14" t="n">
+        <v>6.774409076199488e-05</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4.065010592876762e-05</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.1280675837036356</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.09149799179669e-05</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.5616717820042401</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.5535731639859263</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.1175737088377397</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.1290330335226496</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2593,6 +3233,42 @@
       <c r="AK15" t="n">
         <v>-5.282037031526254e-06</v>
       </c>
+      <c r="AL15" t="n">
+        <v>6.774409076199488e-05</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4.065010592876762e-05</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1280675837036356</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.09149799179669e-05</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.5616717820042401</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.5535731639859263</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.1175737088377397</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.1290330335226496</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2708,6 +3384,42 @@
       <c r="AK16" t="n">
         <v>0.1909493472265272</v>
       </c>
+      <c r="AL16" t="n">
+        <v>1.298252459810874</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.301219357786254</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.182676874791263</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.18531595597618</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-0.3110556141032024</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.127112781838484</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1.208031390098658</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.215866833657531</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1.300901461765801</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.304915420770874</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.4486458983230738</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.50980505222553</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2823,6 +3535,42 @@
       <c r="AK17" t="n">
         <v>2.084082081229171</v>
       </c>
+      <c r="AL17" t="n">
+        <v>1.683524542806411</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.684137003800086</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.484534643982227</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.483426021102464</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.158264565068983</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.386225320612239</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1.637908715352673</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.643012558556985</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.606923627687848</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.595457405515935</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.763959027617127</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1.961570689016727</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2938,6 +3686,42 @@
       <c r="AK18" t="n">
         <v>4.348938671815311</v>
       </c>
+      <c r="AL18" t="n">
+        <v>2.334789605002178</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.323821411567328</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.027168076163154</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2.001428556354367</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3.005324184220425</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3.709502454617863</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.28116647517095</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2.28108483975871</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.130150580103514</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>2.072221585048579</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>3.578875913096833</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.093019049778981</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3137,6 +3921,42 @@
       <c r="AK31" t="n">
         <v>457</v>
       </c>
+      <c r="AL31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>308</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>148</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>132</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>314</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>233</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>425</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>99</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>159</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3145,112 +3965,148 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.483990915</v>
+        <v>11.11304004999988</v>
       </c>
       <c r="C32" t="n">
-        <v>41.556399857</v>
+        <v>36.98752111299996</v>
       </c>
       <c r="D32" t="n">
-        <v>20.67427857999999</v>
+        <v>17.49765009900011</v>
       </c>
       <c r="E32" t="n">
-        <v>32.38605323899999</v>
+        <v>29.00795607600003</v>
       </c>
       <c r="F32" t="n">
-        <v>20.102817896</v>
+        <v>17.90570694899998</v>
       </c>
       <c r="G32" t="n">
-        <v>82.05618645500002</v>
+        <v>73.12552930200013</v>
       </c>
       <c r="H32" t="n">
-        <v>18.50792838699999</v>
+        <v>16.35480834700002</v>
       </c>
       <c r="I32" t="n">
-        <v>39.39442407299998</v>
+        <v>35.68400908900003</v>
       </c>
       <c r="J32" t="n">
-        <v>19.26360969900003</v>
+        <v>16.14814376599998</v>
       </c>
       <c r="K32" t="n">
-        <v>40.56345128799995</v>
+        <v>32.19759995899994</v>
       </c>
       <c r="L32" t="n">
-        <v>30.78088812300001</v>
+        <v>23.32608907099984</v>
       </c>
       <c r="M32" t="n">
-        <v>80.92296789900001</v>
+        <v>72.11152320200017</v>
       </c>
       <c r="N32" t="n">
-        <v>16.26720978499998</v>
+        <v>13.93957299600015</v>
       </c>
       <c r="O32" t="n">
-        <v>39.37687430500006</v>
+        <v>30.19844224999997</v>
       </c>
       <c r="P32" t="n">
-        <v>20.40105888599999</v>
+        <v>16.2013072740001</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.82051068999999</v>
+        <v>28.83195998200017</v>
       </c>
       <c r="R32" t="n">
-        <v>20.06250569899998</v>
+        <v>17.79902587900006</v>
       </c>
       <c r="S32" t="n">
-        <v>58.88619220800001</v>
+        <v>53.09799379900005</v>
       </c>
       <c r="T32" t="n">
-        <v>10.29901377200008</v>
+        <v>9.353315097999712</v>
       </c>
       <c r="U32" t="n">
-        <v>17.77590156200006</v>
+        <v>15.45340331200032</v>
       </c>
       <c r="V32" t="n">
-        <v>19.64058969999996</v>
+        <v>17.69622611700015</v>
       </c>
       <c r="W32" t="n">
-        <v>37.02225894499998</v>
+        <v>34.80469685999969</v>
       </c>
       <c r="X32" t="n">
-        <v>23.36424554600001</v>
+        <v>21.59014479700045</v>
       </c>
       <c r="Y32" t="n">
-        <v>76.15640610100002</v>
+        <v>69.93542785999989</v>
       </c>
       <c r="Z32" t="n">
-        <v>20.40178999800003</v>
+        <v>18.38133722699968</v>
       </c>
       <c r="AA32" t="n">
-        <v>47.21167960700006</v>
+        <v>42.87539363400037</v>
       </c>
       <c r="AB32" t="n">
-        <v>17.88916200699998</v>
+        <v>15.76851075200011</v>
       </c>
       <c r="AC32" t="n">
-        <v>38.22741073200007</v>
+        <v>34.41226906800011</v>
       </c>
       <c r="AD32" t="n">
-        <v>29.58209744399994</v>
+        <v>26.7623561559999</v>
       </c>
       <c r="AE32" t="n">
-        <v>97.27880634300004</v>
+        <v>79.89254389600001</v>
       </c>
       <c r="AF32" t="n">
-        <v>38.08198440199999</v>
+        <v>32.32466108600011</v>
       </c>
       <c r="AG32" t="n">
-        <v>55.86822430699999</v>
+        <v>50.98204222999993</v>
       </c>
       <c r="AH32" t="n">
-        <v>20.18341933099987</v>
+        <v>18.70977430499988</v>
       </c>
       <c r="AI32" t="n">
-        <v>38.57678558599991</v>
+        <v>35.07295277200001</v>
       </c>
       <c r="AJ32" t="n">
-        <v>20.83860703599998</v>
+        <v>18.4298692110001</v>
       </c>
       <c r="AK32" t="n">
-        <v>85.120131915</v>
+        <v>77.88194440500001</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29.22164523800029</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>43.94078949799996</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>24.14257599800021</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>37.86743888499996</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>36.26828637699964</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>90.05212251600005</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>18.89101241699973</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>37.67431458300007</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>25.85203225099986</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>38.99741325900004</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>34.55044894100001</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>54.79943648300014</v>
       </c>
     </row>
     <row r="33">
@@ -3367,6 +4223,42 @@
       <c r="AK33" t="n">
         <v>11.7989648610472</v>
       </c>
+      <c r="AL33" t="n">
+        <v>11.69940563156837</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>11.57456176289618</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>34.58770849293629</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>33.9269018495115</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>82.32410836285321</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>31.56630055597374</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.87566513303772</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.866231397681258</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>5.074555701715198</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.53694029740462</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>17.85724113134693</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>4.076135517356895</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3482,6 +4374,42 @@
       <c r="AK34" t="n">
         <v>3</v>
       </c>
+      <c r="AL34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3597,6 +4525,42 @@
       <c r="AK35" t="n">
         <v>3.932988287015734</v>
       </c>
+      <c r="AL35" t="n">
+        <v>2.924851407892093</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>3.858187254298726</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>6.917541698587259</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>11.3089672831705</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>16.46482167257064</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>10.52210018532458</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.71891628325943</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.9554104658937527</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.01491114034304</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.84564676580154</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>3.571448226269386</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1.358711839118965</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -3719,6 +4683,42 @@
       <c r="AK37" t="n">
         <v>481</v>
       </c>
+      <c r="AL37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>725</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3834,6 +4834,42 @@
       <c r="AK38" t="n">
         <v>239</v>
       </c>
+      <c r="AL38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>373</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3949,6 +4985,42 @@
       <c r="AK39" t="n">
         <v>242</v>
       </c>
+      <c r="AL39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>352</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -4064,6 +5136,42 @@
       <c r="AK40" t="n">
         <v>0.5413223140495868</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4179,6 +5287,42 @@
       <c r="AK41" t="n">
         <v>0.04602510460251046</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4294,6 +5438,42 @@
       <c r="AK42" t="n">
         <v>1.919811396965844</v>
       </c>
+      <c r="AL42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1.919513171615401</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4408,6 +5588,42 @@
       </c>
       <c r="AK43" t="n">
         <v>0.01874652181915064</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.03294822228578443</v>
       </c>
     </row>
   </sheetData>
